--- a/CapturaDis22Nueva2/Reportes/ListadoGeneral.xlsx
+++ b/CapturaDis22Nueva2/Reportes/ListadoGeneral.xlsx
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,27 +290,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -320,8 +323,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,17 +606,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:CF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW4" sqref="AW1:AW1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10" style="14" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="14"/>
+    <col min="1" max="1" width="28.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
@@ -627,200 +630,274 @@
     <col min="46" max="46" width="20.7109375" customWidth="1"/>
     <col min="47" max="47" width="18.140625" customWidth="1"/>
     <col min="48" max="48" width="19" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" customWidth="1"/>
+    <col min="76" max="76" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:84" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="4" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="15"/>
+      <c r="BT1" s="15"/>
+      <c r="BU1" s="15"/>
+      <c r="BV1" s="15"/>
+      <c r="BW1" s="15"/>
+      <c r="BX1" s="15"/>
+      <c r="BY1" s="15"/>
+      <c r="BZ1" s="15"/>
+      <c r="CA1" s="15"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
     </row>
-    <row r="2" spans="1:48" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="7" t="s">
+    <row r="2" spans="1:84" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="10"/>
+    <row r="3" spans="1:84" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7"/>
       <c r="R3" s="3" t="s">
         <v>22</v>
       </c>
@@ -869,24 +946,132 @@
       <c r="AG3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="AY4" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="82">
+    <mergeCell ref="CC1:CF1"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="BU1:BX1"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY1:CB1"/>
+    <mergeCell ref="BQ1:BT1"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM1:BP1"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BA1:BD1"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="AU1:AU3"/>
     <mergeCell ref="AV1:AV3"/>
     <mergeCell ref="AT1:AT3"/>
@@ -900,30 +1085,6 @@
     <mergeCell ref="AK1:AK3"/>
     <mergeCell ref="AL1:AL3"/>
     <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="R1:AG1"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
